--- a/prediction/water_quality_dataset.xlsx
+++ b/prediction/water_quality_dataset.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\Capstone Project\prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSSci\capstone\HoTsPot-Intervention\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D9E303-0E4A-4BB9-A9B0-776DF09D1DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323D9792-D6C0-465B-B6F1-847AF713F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -166,12 +161,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -257,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -292,7 +293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -467,11 +468,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -480,18 +476,18 @@
   <dimension ref="A1:Q614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+      <selection activeCell="D14" sqref="D12:D14 D16:D22 D24:D26 D28:D32 D34:D36 D38:D39 D41 D43:D49 D51 D53 D55:D59 D61:D63 D65:D67 D69:D70 D72 D74:D76 D78:D84 D86:D88 D90:D94 D96:D98 D100:D101 D103:D106 D108:D110 D112:D116 D118:D119 D121 D123:D125 D127:D129 D131:D132 D134 D136:D138 D140:D146 D148:D150 D153:D156 D158:D160 D162:D163 D165 D167:D169 D171:D177 D179:D181 D183:D187 D189:D191 D193 D195:D201 D204 D206:D208 D210:D212 D214:D218 D220:D222 D224:D226 D228 D230:D232 D234:D240 D242:D244 D246:D250 D253:D254 D256:D258 D260 D262:D264 D266:D272 D274:D276 D278:D282 D284:D286 D288:D290 D292 D294:D300 D303:D304 D306:D311 D313:D315 D317:D318 D320:D321 D323 D325:D327 D329:D333 D335:D337 D339:D343 D345:D347 D349:D351 D353:D355 D357:D359 D361:D367 D369:D370 D372 D374:D376 D378:D380 D382:D384 D386 D388:D389 D391:D397 D399:D401 D404:D410 D412:D414 D416:D418 D420 D422:D424 D426:D432 D434:D436 D438:D442 D444:D446 D448:D451 D453:D454 D456:D458 D460:D465 D467:D469 D471 D473:D475 D477:D479 D481:D483 D485 D487:D489 D491:D493 D495 D497:D498 D500:D501 D503:D504 D506 D508 D510:D511 D513 D515:D517 D519:D520 D523 D525:D527 D529:D530 D532 D534 D536:D537 D540:D542 D544:D547 D549:D550 D553 D556:D558 D560:D561 D563 D565:D567 D569 D571:D572 D574 D576:D577 D579:D580 D582:D583 D585 D587:D588 D590 D592 D594:D596 D598:D599 D601 D603 D605:D606 D608 D610:D611 D613:D614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -597,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -607,6 +603,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
@@ -647,7 +646,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -657,6 +656,9 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
@@ -697,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -707,6 +709,9 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -747,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -800,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -810,6 +815,9 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
@@ -850,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -860,6 +868,9 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
@@ -900,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -953,7 +964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -963,6 +974,10 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
+      <c r="D10" t="str">
+        <f>D9</f>
+        <v>peat</v>
+      </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -1056,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -1066,6 +1081,10 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
+      <c r="D12" t="str">
+        <f xml:space="preserve"> D11</f>
+        <v>sand</v>
+      </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
@@ -1106,7 +1125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -1116,6 +1135,10 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
+      <c r="D13" t="str">
+        <f xml:space="preserve"> D12</f>
+        <v>sand</v>
+      </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
@@ -1156,7 +1179,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -1206,7 +1229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -1259,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -1309,7 +1332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -1359,7 +1382,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -1409,7 +1432,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -1459,7 +1482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -1509,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -1559,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -1609,7 +1632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -1662,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1712,7 +1735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -1762,7 +1785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -1812,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -1865,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -1915,7 +1938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -1965,7 +1988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -2015,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -2065,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -2115,7 +2138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2168,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2218,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -2268,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2318,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2371,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -2421,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2471,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2524,7 +2547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2574,7 +2597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -2627,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2677,7 +2700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2727,7 +2750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2777,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2827,7 +2850,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -2877,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -2927,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -2977,7 +3000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -3030,7 +3053,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -3080,7 +3103,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -3133,7 +3156,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -3183,7 +3206,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -3236,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -3286,7 +3309,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -3336,7 +3359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -3386,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -3436,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -3486,7 +3509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -3539,7 +3562,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -3589,7 +3612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -3639,7 +3662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -3689,7 +3712,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -3742,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2020</v>
       </c>
@@ -3792,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -3842,7 +3865,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2020</v>
       </c>
@@ -3892,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -3945,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -3995,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -4045,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -4098,7 +4121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -4148,7 +4171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -4201,7 +4224,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2020</v>
       </c>
@@ -4251,7 +4274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2020</v>
       </c>
@@ -4301,7 +4324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2020</v>
       </c>
@@ -4351,7 +4374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2020</v>
       </c>
@@ -4404,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2020</v>
       </c>
@@ -4454,7 +4477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2020</v>
       </c>
@@ -4504,7 +4527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2020</v>
       </c>
@@ -4554,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2020</v>
       </c>
@@ -4604,7 +4627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2020</v>
       </c>
@@ -4654,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -4704,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2020</v>
       </c>
@@ -4754,7 +4777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2020</v>
       </c>
@@ -4807,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -4857,7 +4880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -4907,7 +4930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -4957,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -5010,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -5060,7 +5083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -5110,7 +5133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -5160,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -5210,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -5260,7 +5283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2019</v>
       </c>
@@ -5313,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2019</v>
       </c>
@@ -5363,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2019</v>
       </c>
@@ -5413,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2019</v>
       </c>
@@ -5463,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2019</v>
       </c>
@@ -5516,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2019</v>
       </c>
@@ -5566,7 +5589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2019</v>
       </c>
@@ -5616,7 +5639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2019</v>
       </c>
@@ -5669,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2019</v>
       </c>
@@ -5719,7 +5742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2019</v>
       </c>
@@ -5769,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2019</v>
       </c>
@@ -5819,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2019</v>
       </c>
@@ -5869,7 +5892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2019</v>
       </c>
@@ -5922,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2019</v>
       </c>
@@ -5972,7 +5995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -6022,7 +6045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2019</v>
       </c>
@@ -6072,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2019</v>
       </c>
@@ -6125,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2019</v>
       </c>
@@ -6175,7 +6198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2019</v>
       </c>
@@ -6225,7 +6248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2019</v>
       </c>
@@ -6275,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2019</v>
       </c>
@@ -6325,7 +6348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2019</v>
       </c>
@@ -6375,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2019</v>
       </c>
@@ -6428,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2019</v>
       </c>
@@ -6478,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2019</v>
       </c>
@@ -6528,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2019</v>
       </c>
@@ -6581,7 +6604,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2019</v>
       </c>
@@ -6631,7 +6654,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2019</v>
       </c>
@@ -6684,7 +6707,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2019</v>
       </c>
@@ -6734,7 +6757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2019</v>
       </c>
@@ -6784,7 +6807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2019</v>
       </c>
@@ -6834,7 +6857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2018</v>
       </c>
@@ -6887,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2018</v>
       </c>
@@ -6937,7 +6960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2018</v>
       </c>
@@ -6987,7 +7010,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2018</v>
       </c>
@@ -7037,7 +7060,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2018</v>
       </c>
@@ -7090,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2018</v>
       </c>
@@ -7140,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2018</v>
       </c>
@@ -7190,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2018</v>
       </c>
@@ -7243,7 +7266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2018</v>
       </c>
@@ -7293,7 +7316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2018</v>
       </c>
@@ -7346,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2018</v>
       </c>
@@ -7396,7 +7419,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2018</v>
       </c>
@@ -7446,7 +7469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2018</v>
       </c>
@@ -7496,7 +7519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2018</v>
       </c>
@@ -7549,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2018</v>
       </c>
@@ -7599,7 +7622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2018</v>
       </c>
@@ -7649,7 +7672,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2018</v>
       </c>
@@ -7699,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2018</v>
       </c>
@@ -7749,7 +7772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2018</v>
       </c>
@@ -7799,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2018</v>
       </c>
@@ -7849,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2018</v>
       </c>
@@ -7899,7 +7922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2018</v>
       </c>
@@ -7952,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2018</v>
       </c>
@@ -8002,7 +8025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2018</v>
       </c>
@@ -8052,7 +8075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2018</v>
       </c>
@@ -8102,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2018</v>
       </c>
@@ -8155,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2018</v>
       </c>
@@ -8208,7 +8231,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2018</v>
       </c>
@@ -8258,7 +8281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2018</v>
       </c>
@@ -8308,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2018</v>
       </c>
@@ -8358,7 +8381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2018</v>
       </c>
@@ -8408,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2017</v>
       </c>
@@ -8461,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2017</v>
       </c>
@@ -8511,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2017</v>
       </c>
@@ -8561,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2017</v>
       </c>
@@ -8611,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2017</v>
       </c>
@@ -8664,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2017</v>
       </c>
@@ -8714,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2017</v>
       </c>
@@ -8764,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2017</v>
       </c>
@@ -8817,7 +8840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2017</v>
       </c>
@@ -8867,7 +8890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2017</v>
       </c>
@@ -8920,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2017</v>
       </c>
@@ -8970,7 +8993,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2017</v>
       </c>
@@ -9020,7 +9043,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2017</v>
       </c>
@@ -9070,7 +9093,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2017</v>
       </c>
@@ -9123,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2017</v>
       </c>
@@ -9173,7 +9196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2017</v>
       </c>
@@ -9223,7 +9246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2017</v>
       </c>
@@ -9273,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2017</v>
       </c>
@@ -9323,7 +9346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2017</v>
       </c>
@@ -9373,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2017</v>
       </c>
@@ -9423,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2017</v>
       </c>
@@ -9473,7 +9496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2017</v>
       </c>
@@ -9526,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2017</v>
       </c>
@@ -9576,7 +9599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2017</v>
       </c>
@@ -9626,7 +9649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2017</v>
       </c>
@@ -9676,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2017</v>
       </c>
@@ -9729,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2017</v>
       </c>
@@ -9779,7 +9802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2017</v>
       </c>
@@ -9829,7 +9852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2017</v>
       </c>
@@ -9879,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2017</v>
       </c>
@@ -9929,7 +9952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2017</v>
       </c>
@@ -9979,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2016</v>
       </c>
@@ -10032,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2016</v>
       </c>
@@ -10082,7 +10105,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2016</v>
       </c>
@@ -10132,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2016</v>
       </c>
@@ -10182,7 +10205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2016</v>
       </c>
@@ -10235,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2016</v>
       </c>
@@ -10285,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2016</v>
       </c>
@@ -10338,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2016</v>
       </c>
@@ -10388,7 +10411,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2016</v>
       </c>
@@ -10438,7 +10461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2016</v>
       </c>
@@ -10488,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2016</v>
       </c>
@@ -10538,7 +10561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2016</v>
       </c>
@@ -10588,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2016</v>
       </c>
@@ -10638,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2016</v>
       </c>
@@ -10688,7 +10711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2016</v>
       </c>
@@ -10741,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2016</v>
       </c>
@@ -10794,7 +10817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2016</v>
       </c>
@@ -10844,7 +10867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2016</v>
       </c>
@@ -10897,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2016</v>
       </c>
@@ -10947,7 +10970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2016</v>
       </c>
@@ -10997,7 +11020,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2016</v>
       </c>
@@ -11047,7 +11070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2016</v>
       </c>
@@ -11100,7 +11123,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2016</v>
       </c>
@@ -11150,7 +11173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2016</v>
       </c>
@@ -11200,7 +11223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2016</v>
       </c>
@@ -11250,7 +11273,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2016</v>
       </c>
@@ -11303,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2016</v>
       </c>
@@ -11353,7 +11376,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2016</v>
       </c>
@@ -11403,7 +11426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2016</v>
       </c>
@@ -11453,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2016</v>
       </c>
@@ -11503,7 +11526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2016</v>
       </c>
@@ -11553,7 +11576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2015</v>
       </c>
@@ -11606,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2015</v>
       </c>
@@ -11656,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2015</v>
       </c>
@@ -11706,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2015</v>
       </c>
@@ -11756,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2015</v>
       </c>
@@ -11809,7 +11832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2015</v>
       </c>
@@ -11859,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2015</v>
       </c>
@@ -11909,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2015</v>
       </c>
@@ -11959,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2015</v>
       </c>
@@ -12012,7 +12035,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2015</v>
       </c>
@@ -12062,7 +12085,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2015</v>
       </c>
@@ -12115,7 +12138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2015</v>
       </c>
@@ -12165,7 +12188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2015</v>
       </c>
@@ -12215,7 +12238,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2015</v>
       </c>
@@ -12265,7 +12288,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2015</v>
       </c>
@@ -12318,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2015</v>
       </c>
@@ -12368,7 +12391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2015</v>
       </c>
@@ -12418,7 +12441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2015</v>
       </c>
@@ -12468,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2015</v>
       </c>
@@ -12518,7 +12541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2015</v>
       </c>
@@ -12568,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2015</v>
       </c>
@@ -12618,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2015</v>
       </c>
@@ -12668,7 +12691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2015</v>
       </c>
@@ -12721,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2015</v>
       </c>
@@ -12771,7 +12794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2015</v>
       </c>
@@ -12821,7 +12844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2015</v>
       </c>
@@ -12871,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2015</v>
       </c>
@@ -12924,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2015</v>
       </c>
@@ -12974,7 +12997,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2015</v>
       </c>
@@ -13024,7 +13047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2015</v>
       </c>
@@ -13074,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2015</v>
       </c>
@@ -13124,7 +13147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2015</v>
       </c>
@@ -13174,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2014</v>
       </c>
@@ -13227,7 +13250,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2014</v>
       </c>
@@ -13280,7 +13303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2014</v>
       </c>
@@ -13330,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2014</v>
       </c>
@@ -13380,7 +13403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2014</v>
       </c>
@@ -13433,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2014</v>
       </c>
@@ -13483,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2014</v>
       </c>
@@ -13533,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2014</v>
       </c>
@@ -13583,7 +13606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2014</v>
       </c>
@@ -13636,7 +13659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2014</v>
       </c>
@@ -13686,7 +13709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2014</v>
       </c>
@@ -13739,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2014</v>
       </c>
@@ -13789,7 +13812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2014</v>
       </c>
@@ -13839,7 +13862,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2014</v>
       </c>
@@ -13889,7 +13912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2014</v>
       </c>
@@ -13942,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2014</v>
       </c>
@@ -13992,7 +14015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2014</v>
       </c>
@@ -14042,7 +14065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2014</v>
       </c>
@@ -14092,7 +14115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2014</v>
       </c>
@@ -14142,7 +14165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2014</v>
       </c>
@@ -14192,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2014</v>
       </c>
@@ -14242,7 +14265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2014</v>
       </c>
@@ -14292,7 +14315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2014</v>
       </c>
@@ -14345,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2014</v>
       </c>
@@ -14395,7 +14418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2014</v>
       </c>
@@ -14445,7 +14468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2014</v>
       </c>
@@ -14495,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2014</v>
       </c>
@@ -14548,7 +14571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2014</v>
       </c>
@@ -14598,7 +14621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2014</v>
       </c>
@@ -14648,7 +14671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2014</v>
       </c>
@@ -14698,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2014</v>
       </c>
@@ -14748,7 +14771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2014</v>
       </c>
@@ -14798,7 +14821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2013</v>
       </c>
@@ -14851,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2013</v>
       </c>
@@ -14901,7 +14924,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2013</v>
       </c>
@@ -14951,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2013</v>
       </c>
@@ -15001,7 +15024,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2013</v>
       </c>
@@ -15054,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2013</v>
       </c>
@@ -15104,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2013</v>
       </c>
@@ -15154,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2013</v>
       </c>
@@ -15204,7 +15227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2013</v>
       </c>
@@ -15257,7 +15280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2013</v>
       </c>
@@ -15307,7 +15330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2013</v>
       </c>
@@ -15360,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2013</v>
       </c>
@@ -15410,7 +15433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2013</v>
       </c>
@@ -15460,7 +15483,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2013</v>
       </c>
@@ -15510,7 +15533,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2013</v>
       </c>
@@ -15560,7 +15583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2013</v>
       </c>
@@ -15610,7 +15633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2013</v>
       </c>
@@ -15660,7 +15683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2013</v>
       </c>
@@ -15710,7 +15733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2013</v>
       </c>
@@ -15763,7 +15786,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2013</v>
       </c>
@@ -15816,7 +15839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2013</v>
       </c>
@@ -15866,7 +15889,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2013</v>
       </c>
@@ -15916,7 +15939,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2013</v>
       </c>
@@ -15969,7 +15992,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2013</v>
       </c>
@@ -16019,7 +16042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2013</v>
       </c>
@@ -16069,7 +16092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2013</v>
       </c>
@@ -16119,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2013</v>
       </c>
@@ -16169,7 +16192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2013</v>
       </c>
@@ -16219,7 +16242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2013</v>
       </c>
@@ -16269,7 +16292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2013</v>
       </c>
@@ -16322,7 +16345,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2013</v>
       </c>
@@ -16372,7 +16395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2013</v>
       </c>
@@ -16422,7 +16445,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2013</v>
       </c>
@@ -16472,7 +16495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2012</v>
       </c>
@@ -16525,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2012</v>
       </c>
@@ -16575,7 +16598,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2012</v>
       </c>
@@ -16625,7 +16648,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2012</v>
       </c>
@@ -16678,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2012</v>
       </c>
@@ -16728,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2012</v>
       </c>
@@ -16778,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2012</v>
       </c>
@@ -16831,7 +16854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2012</v>
       </c>
@@ -16881,7 +16904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2012</v>
       </c>
@@ -16934,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2012</v>
       </c>
@@ -16984,7 +17007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2012</v>
       </c>
@@ -17034,7 +17057,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2012</v>
       </c>
@@ -17084,7 +17107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2012</v>
       </c>
@@ -17137,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2012</v>
       </c>
@@ -17187,7 +17210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2012</v>
       </c>
@@ -17237,7 +17260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2012</v>
       </c>
@@ -17287,7 +17310,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2012</v>
       </c>
@@ -17337,7 +17360,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2012</v>
       </c>
@@ -17387,7 +17410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2012</v>
       </c>
@@ -17440,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2012</v>
       </c>
@@ -17490,7 +17513,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2012</v>
       </c>
@@ -17540,7 +17563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2012</v>
       </c>
@@ -17590,7 +17613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2012</v>
       </c>
@@ -17643,7 +17666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2012</v>
       </c>
@@ -17693,7 +17716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2012</v>
       </c>
@@ -17743,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2012</v>
       </c>
@@ -17793,7 +17816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2012</v>
       </c>
@@ -17843,7 +17866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2012</v>
       </c>
@@ -17893,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2011</v>
       </c>
@@ -17946,7 +17969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2011</v>
       </c>
@@ -17996,7 +18019,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2011</v>
       </c>
@@ -18046,7 +18069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2011</v>
       </c>
@@ -18096,7 +18119,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2011</v>
       </c>
@@ -18149,7 +18172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2011</v>
       </c>
@@ -18199,7 +18222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2011</v>
       </c>
@@ -18249,7 +18272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2011</v>
       </c>
@@ -18299,7 +18322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2011</v>
       </c>
@@ -18352,7 +18375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2011</v>
       </c>
@@ -18402,7 +18425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2011</v>
       </c>
@@ -18452,7 +18475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2011</v>
       </c>
@@ -18502,7 +18525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2011</v>
       </c>
@@ -18555,7 +18578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2011</v>
       </c>
@@ -18605,7 +18628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2011</v>
       </c>
@@ -18655,7 +18678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2011</v>
       </c>
@@ -18705,7 +18728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2011</v>
       </c>
@@ -18758,7 +18781,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2011</v>
       </c>
@@ -18808,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2011</v>
       </c>
@@ -18858,7 +18881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2011</v>
       </c>
@@ -18908,7 +18931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2011</v>
       </c>
@@ -18958,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2011</v>
       </c>
@@ -19008,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2011</v>
       </c>
@@ -19058,7 +19081,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2011</v>
       </c>
@@ -19108,7 +19131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2011</v>
       </c>
@@ -19161,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2011</v>
       </c>
@@ -19211,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2011</v>
       </c>
@@ -19261,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2011</v>
       </c>
@@ -19314,7 +19337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2011</v>
       </c>
@@ -19364,7 +19387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2011</v>
       </c>
@@ -19417,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2011</v>
       </c>
@@ -19467,7 +19490,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2011</v>
       </c>
@@ -19517,7 +19540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2011</v>
       </c>
@@ -19567,7 +19590,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2010</v>
       </c>
@@ -19620,7 +19643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2010</v>
       </c>
@@ -19670,7 +19693,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2010</v>
       </c>
@@ -19720,7 +19743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2010</v>
       </c>
@@ -19770,7 +19793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2010</v>
       </c>
@@ -19823,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2010</v>
       </c>
@@ -19873,7 +19896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2010</v>
       </c>
@@ -19923,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2010</v>
       </c>
@@ -19973,7 +19996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2010</v>
       </c>
@@ -20026,7 +20049,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2010</v>
       </c>
@@ -20076,7 +20099,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2010</v>
       </c>
@@ -20129,7 +20152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2010</v>
       </c>
@@ -20179,7 +20202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2010</v>
       </c>
@@ -20229,7 +20252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2010</v>
       </c>
@@ -20282,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2010</v>
       </c>
@@ -20332,7 +20355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2010</v>
       </c>
@@ -20382,7 +20405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2010</v>
       </c>
@@ -20432,7 +20455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2010</v>
       </c>
@@ -20482,7 +20505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2010</v>
       </c>
@@ -20532,7 +20555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2010</v>
       </c>
@@ -20582,7 +20605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2010</v>
       </c>
@@ -20632,7 +20655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2010</v>
       </c>
@@ -20685,7 +20708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2010</v>
       </c>
@@ -20735,7 +20758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2010</v>
       </c>
@@ -20785,7 +20808,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2010</v>
       </c>
@@ -20835,7 +20858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2010</v>
       </c>
@@ -20888,7 +20911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2010</v>
       </c>
@@ -20941,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2010</v>
       </c>
@@ -20991,7 +21014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2010</v>
       </c>
@@ -21041,7 +21064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2010</v>
       </c>
@@ -21091,7 +21114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2010</v>
       </c>
@@ -21141,7 +21164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2010</v>
       </c>
@@ -21191,7 +21214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2010</v>
       </c>
@@ -21241,7 +21264,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2010</v>
       </c>
@@ -21291,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2009</v>
       </c>
@@ -21344,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2009</v>
       </c>
@@ -21394,7 +21417,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2009</v>
       </c>
@@ -21444,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2009</v>
       </c>
@@ -21494,7 +21517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2009</v>
       </c>
@@ -21547,7 +21570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2009</v>
       </c>
@@ -21597,7 +21620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2009</v>
       </c>
@@ -21647,7 +21670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2009</v>
       </c>
@@ -21697,7 +21720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2009</v>
       </c>
@@ -21750,7 +21773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2009</v>
       </c>
@@ -21800,7 +21823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2009</v>
       </c>
@@ -21853,7 +21876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2009</v>
       </c>
@@ -21903,7 +21926,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2009</v>
       </c>
@@ -21953,7 +21976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2009</v>
       </c>
@@ -22003,7 +22026,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2009</v>
       </c>
@@ -22056,7 +22079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2009</v>
       </c>
@@ -22106,7 +22129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2009</v>
       </c>
@@ -22156,7 +22179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2009</v>
       </c>
@@ -22206,7 +22229,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2009</v>
       </c>
@@ -22256,7 +22279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2009</v>
       </c>
@@ -22306,7 +22329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2009</v>
       </c>
@@ -22356,7 +22379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2009</v>
       </c>
@@ -22406,7 +22429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2009</v>
       </c>
@@ -22459,7 +22482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2009</v>
       </c>
@@ -22509,7 +22532,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2009</v>
       </c>
@@ -22559,7 +22582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2009</v>
       </c>
@@ -22609,7 +22632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2009</v>
       </c>
@@ -22662,7 +22685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2009</v>
       </c>
@@ -22712,7 +22735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2009</v>
       </c>
@@ -22762,7 +22785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2009</v>
       </c>
@@ -22812,7 +22835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2009</v>
       </c>
@@ -22862,7 +22885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2009</v>
       </c>
@@ -22912,7 +22935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2008</v>
       </c>
@@ -22965,7 +22988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2008</v>
       </c>
@@ -23015,7 +23038,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2008</v>
       </c>
@@ -23065,7 +23088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2008</v>
       </c>
@@ -23115,7 +23138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2008</v>
       </c>
@@ -23168,7 +23191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2008</v>
       </c>
@@ -23218,7 +23241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2008</v>
       </c>
@@ -23268,7 +23291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2008</v>
       </c>
@@ -23318,7 +23341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2008</v>
       </c>
@@ -23368,7 +23391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2008</v>
       </c>
@@ -23421,7 +23444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2008</v>
       </c>
@@ -23471,7 +23494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2008</v>
       </c>
@@ -23521,7 +23544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2008</v>
       </c>
@@ -23574,7 +23597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2008</v>
       </c>
@@ -23624,7 +23647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2008</v>
       </c>
@@ -23674,7 +23697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2008</v>
       </c>
@@ -23724,7 +23747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2008</v>
       </c>
@@ -23777,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2008</v>
       </c>
@@ -23827,7 +23850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2008</v>
       </c>
@@ -23877,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2008</v>
       </c>
@@ -23927,7 +23950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2008</v>
       </c>
@@ -23977,7 +24000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2008</v>
       </c>
@@ -24027,7 +24050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2008</v>
       </c>
@@ -24077,7 +24100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2008</v>
       </c>
@@ -24130,7 +24153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2008</v>
       </c>
@@ -24180,7 +24203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2008</v>
       </c>
@@ -24230,7 +24253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2008</v>
       </c>
@@ -24280,7 +24303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2008</v>
       </c>
@@ -24333,7 +24356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2008</v>
       </c>
@@ -24383,7 +24406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2008</v>
       </c>
@@ -24436,7 +24459,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2008</v>
       </c>
@@ -24486,7 +24509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2008</v>
       </c>
@@ -24536,7 +24559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2008</v>
       </c>
@@ -24586,7 +24609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2007</v>
       </c>
@@ -24639,7 +24662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2007</v>
       </c>
@@ -24689,7 +24712,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2007</v>
       </c>
@@ -24739,7 +24762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2007</v>
       </c>
@@ -24789,7 +24812,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2007</v>
       </c>
@@ -24842,7 +24865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2007</v>
       </c>
@@ -24892,7 +24915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2007</v>
       </c>
@@ -24942,7 +24965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2007</v>
       </c>
@@ -24992,7 +25015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2007</v>
       </c>
@@ -25045,7 +25068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2007</v>
       </c>
@@ -25095,7 +25118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2007</v>
       </c>
@@ -25148,7 +25171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2007</v>
       </c>
@@ -25198,7 +25221,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2007</v>
       </c>
@@ -25248,7 +25271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2007</v>
       </c>
@@ -25298,7 +25321,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2007</v>
       </c>
@@ -25351,7 +25374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2007</v>
       </c>
@@ -25401,7 +25424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2007</v>
       </c>
@@ -25451,7 +25474,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2007</v>
       </c>
@@ -25501,7 +25524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2007</v>
       </c>
@@ -25554,7 +25577,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2007</v>
       </c>
@@ -25604,7 +25627,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2007</v>
       </c>
@@ -25657,7 +25680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2007</v>
       </c>
@@ -25707,7 +25730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2007</v>
       </c>
@@ -25757,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2006</v>
       </c>
@@ -25810,7 +25833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2006</v>
       </c>
@@ -25860,7 +25883,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2006</v>
       </c>
@@ -25910,7 +25933,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2006</v>
       </c>
@@ -25963,7 +25986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2006</v>
       </c>
@@ -26013,7 +26036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2006</v>
       </c>
@@ -26063,7 +26086,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2006</v>
       </c>
@@ -26116,7 +26139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2006</v>
       </c>
@@ -26166,7 +26189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2006</v>
       </c>
@@ -26219,7 +26242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2006</v>
       </c>
@@ -26269,7 +26292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2006</v>
       </c>
@@ -26322,7 +26345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2006</v>
       </c>
@@ -26372,7 +26395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2006</v>
       </c>
@@ -26422,7 +26445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2006</v>
       </c>
@@ -26475,7 +26498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2006</v>
       </c>
@@ -26525,7 +26548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2006</v>
       </c>
@@ -26578,7 +26601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2006</v>
       </c>
@@ -26628,7 +26651,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2006</v>
       </c>
@@ -26678,7 +26701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2006</v>
       </c>
@@ -26728,7 +26751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2005</v>
       </c>
@@ -26781,7 +26804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2005</v>
       </c>
@@ -26831,7 +26854,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2005</v>
       </c>
@@ -26881,7 +26904,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2005</v>
       </c>
@@ -26934,7 +26957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2005</v>
       </c>
@@ -26987,7 +27010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2005</v>
       </c>
@@ -27037,7 +27060,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2005</v>
       </c>
@@ -27090,7 +27113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2005</v>
       </c>
@@ -27140,7 +27163,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2005</v>
       </c>
@@ -27190,7 +27213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2005</v>
       </c>
@@ -27240,7 +27263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2005</v>
       </c>
@@ -27293,7 +27316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2005</v>
       </c>
@@ -27343,7 +27366,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2005</v>
       </c>
@@ -27393,7 +27416,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2005</v>
       </c>
@@ -27446,7 +27469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2005</v>
       </c>
@@ -27496,7 +27519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2005</v>
       </c>
@@ -27549,7 +27572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2005</v>
       </c>
@@ -27599,7 +27622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>2004</v>
       </c>
@@ -27652,7 +27675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>2004</v>
       </c>
@@ -27702,7 +27725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>2004</v>
       </c>
@@ -27752,7 +27775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>2004</v>
       </c>
@@ -27805,7 +27828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>2004</v>
       </c>
@@ -27858,7 +27881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>2004</v>
       </c>
@@ -27908,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>2004</v>
       </c>
@@ -27958,7 +27981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>2004</v>
       </c>
@@ -28008,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>2004</v>
       </c>
@@ -28061,7 +28084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>2004</v>
       </c>
@@ -28111,7 +28134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>2004</v>
       </c>
@@ -28161,7 +28184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>2004</v>
       </c>
@@ -28211,7 +28234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>2004</v>
       </c>
@@ -28261,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>2003</v>
       </c>
@@ -28314,7 +28337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>2003</v>
       </c>
@@ -28364,7 +28387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>2003</v>
       </c>
@@ -28414,7 +28437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>2003</v>
       </c>
@@ -28467,7 +28490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2003</v>
       </c>
@@ -28520,7 +28543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>2003</v>
       </c>
@@ -28570,7 +28593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>2003</v>
       </c>
@@ -28623,7 +28646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>2003</v>
       </c>
@@ -28676,7 +28699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>2003</v>
       </c>
@@ -28726,7 +28749,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>2003</v>
       </c>
@@ -28776,7 +28799,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>2003</v>
       </c>
@@ -28826,7 +28849,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2002</v>
       </c>
@@ -28879,7 +28902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>2002</v>
       </c>
@@ -28929,7 +28952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>2002</v>
       </c>
@@ -28979,7 +29002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>2002</v>
       </c>
@@ -29032,7 +29055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="563" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>2002</v>
       </c>
@@ -29082,7 +29105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>2002</v>
       </c>
@@ -29135,7 +29158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>2002</v>
       </c>
@@ -29185,7 +29208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>2002</v>
       </c>
@@ -29235,7 +29258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>2002</v>
       </c>
@@ -29285,7 +29308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>2002</v>
       </c>
@@ -29338,7 +29361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>2002</v>
       </c>
@@ -29388,7 +29411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>2001</v>
       </c>
@@ -29441,7 +29464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>2001</v>
       </c>
@@ -29491,7 +29514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>2001</v>
       </c>
@@ -29541,7 +29564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>2001</v>
       </c>
@@ -29594,7 +29617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>2001</v>
       </c>
@@ -29644,7 +29667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>2000</v>
       </c>
@@ -29697,7 +29720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>2000</v>
       </c>
@@ -29747,7 +29770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>2000</v>
       </c>
@@ -29797,7 +29820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>2000</v>
       </c>
@@ -29850,7 +29873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>2000</v>
       </c>
@@ -29900,7 +29923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>2000</v>
       </c>
@@ -29950,7 +29973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>1999</v>
       </c>
@@ -30003,7 +30026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>1999</v>
       </c>
@@ -30053,7 +30076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>1999</v>
       </c>
@@ -30103,7 +30126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>1999</v>
       </c>
@@ -30156,7 +30179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="585" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>1999</v>
       </c>
@@ -30206,7 +30229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>1999</v>
       </c>
@@ -30259,7 +30282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>1999</v>
       </c>
@@ -30309,7 +30332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>1999</v>
       </c>
@@ -30359,7 +30382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>1999</v>
       </c>
@@ -30412,7 +30435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>1999</v>
       </c>
@@ -30462,7 +30485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="591" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>1998</v>
       </c>
@@ -30515,7 +30538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>1998</v>
       </c>
@@ -30565,7 +30588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>1998</v>
       </c>
@@ -30618,7 +30641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>1998</v>
       </c>
@@ -30668,7 +30691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>1998</v>
       </c>
@@ -30718,7 +30741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>1998</v>
       </c>
@@ -30768,7 +30791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>1997</v>
       </c>
@@ -30821,7 +30844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>1997</v>
       </c>
@@ -30871,7 +30894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>1997</v>
       </c>
@@ -30921,7 +30944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>1996</v>
       </c>
@@ -30974,7 +30997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>1996</v>
       </c>
@@ -31024,7 +31047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>1996</v>
       </c>
@@ -31077,7 +31100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="603" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>1996</v>
       </c>
@@ -31127,7 +31150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>1995</v>
       </c>
@@ -31180,7 +31203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>1995</v>
       </c>
@@ -31230,7 +31253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>1995</v>
       </c>
@@ -31280,7 +31303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>1994</v>
       </c>
@@ -31333,7 +31356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>1994</v>
       </c>
@@ -31383,7 +31406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>1993</v>
       </c>
@@ -31436,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>1993</v>
       </c>
@@ -31486,7 +31509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>1993</v>
       </c>
@@ -31536,7 +31559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>1992</v>
       </c>
@@ -31589,7 +31612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1992</v>
       </c>
@@ -31639,7 +31662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>1992</v>
       </c>
@@ -31690,6 +31713,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>